--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/Section2.4_Example_JK.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/Section2.4_Example_JK.xlsx
@@ -99,7 +99,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="10"/>
+      <color theme="5" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -187,11 +189,11 @@
     <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -212,6 +214,60 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>514352</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>523875</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>101600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D2BADA-4C71-4EBC-AAE7-EC6FE71EA81D}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="4600577" y="1590675"/>
+          <a:ext cx="9523" cy="2606675"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -480,7 +536,12 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1000">
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -536,60 +597,6 @@
         <a:xfrm>
           <a:off x="2047875" y="1428750"/>
           <a:ext cx="1993900" cy="1441450"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>514352</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>523875</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>101600</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="31" name="Straight Arrow Connector 30">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F3D2BADA-4C71-4EBC-AAE7-EC6FE71EA81D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm flipH="1">
-          <a:off x="4600577" y="1590675"/>
-          <a:ext cx="9523" cy="2606675"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -749,15 +756,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>2486025</xdr:colOff>
+      <xdr:colOff>1781175</xdr:colOff>
       <xdr:row>8</xdr:row>
-      <xdr:rowOff>288925</xdr:rowOff>
+      <xdr:rowOff>203199</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>298450</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2019300</xdr:colOff>
       <xdr:row>9</xdr:row>
-      <xdr:rowOff>257175</xdr:rowOff>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -774,8 +781,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm flipV="1">
-          <a:off x="4029075" y="2498725"/>
-          <a:ext cx="355600" cy="282575"/>
+          <a:off x="3324225" y="2098674"/>
+          <a:ext cx="238125" cy="206375"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -798,7 +805,12 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1000">
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -807,7 +819,12 @@
             <a:t>①</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN">
+            <a:rPr lang="en-IN" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
             <a:t> </a:t>
@@ -815,7 +832,7 @@
           <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:schemeClr val="accent2">
-                <a:lumMod val="50000"/>
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:latin typeface="Calibri"/>
@@ -878,7 +895,12 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1000">
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -889,7 +911,7 @@
           <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:schemeClr val="accent2">
-                <a:lumMod val="50000"/>
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:latin typeface="Calibri"/>
@@ -903,15 +925,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>765175</xdr:colOff>
+      <xdr:colOff>660400</xdr:colOff>
       <xdr:row>18</xdr:row>
-      <xdr:rowOff>57150</xdr:rowOff>
+      <xdr:rowOff>47625</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>19</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>18</xdr:row>
+      <xdr:rowOff>304800</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -928,8 +950,8 @@
       </xdr:nvSpPr>
       <xdr:spPr bwMode="auto">
         <a:xfrm>
-          <a:off x="8728075" y="6089650"/>
-          <a:ext cx="530225" cy="260350"/>
+          <a:off x="7613650" y="5086350"/>
+          <a:ext cx="482600" cy="257175"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -952,7 +974,12 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1000">
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -961,7 +988,12 @@
             <a:t>⑤, ⑥</a:t>
           </a:r>
           <a:r>
-            <a:rPr lang="en-IN">
+            <a:rPr lang="en-IN" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:effectLst/>
             </a:rPr>
             <a:t> </a:t>
@@ -974,7 +1006,7 @@
           <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:schemeClr val="accent2">
-                <a:lumMod val="50000"/>
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:latin typeface="Calibri"/>
@@ -1091,7 +1123,12 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1000">
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -1102,7 +1139,7 @@
           <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
             <a:solidFill>
               <a:schemeClr val="accent2">
-                <a:lumMod val="50000"/>
+                <a:lumMod val="75000"/>
               </a:schemeClr>
             </a:solidFill>
             <a:latin typeface="Calibri"/>
@@ -1219,6 +1256,176 @@
         </a:fontRef>
       </xdr:style>
     </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1962150</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>184149</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2200275</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76199</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="33" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74F8E74F-EC69-6546-9F2C-2207C9A9BDA9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm flipV="1">
+          <a:off x="3505200" y="3965574"/>
+          <a:ext cx="238125" cy="206375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>①</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>428625</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>196850</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>742950</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="42" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{91E63CC8-7761-41F5-92BE-EAECA0CE9424}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="5467350" y="2092325"/>
+          <a:ext cx="314325" cy="196850"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1524,7 +1731,7 @@
   <dimension ref="B6:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="M9" sqref="M9"/>
+      <selection activeCell="K18" sqref="K18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1574,14 +1781,14 @@
     <row r="9" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="10" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="11" t="s">
+      <c r="B11" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11"/>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
+      <c r="C11" s="10"/>
+      <c r="D11" s="10"/>
+      <c r="E11" s="10"/>
+      <c r="F11" s="10"/>
+      <c r="G11" s="10"/>
     </row>
     <row r="12" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B12" s="1" t="s">
@@ -1607,7 +1814,7 @@
       <c r="B13" s="7">
         <v>42887</v>
       </c>
-      <c r="C13" s="10" t="s">
+      <c r="C13" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D13" s="9">
@@ -1649,14 +1856,14 @@
     </row>
     <row r="16" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="17" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="11" t="s">
+      <c r="B17" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C17" s="11"/>
-      <c r="D17" s="11"/>
-      <c r="E17" s="11"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
     </row>
     <row r="18" spans="2:7" ht="24.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B18" s="1" t="s">
@@ -1682,7 +1889,7 @@
       <c r="B19" s="7">
         <v>42891</v>
       </c>
-      <c r="C19" s="10" t="s">
+      <c r="C19" s="11" t="s">
         <v>9</v>
       </c>
       <c r="D19" s="9"/>
@@ -1708,6 +1915,7 @@
     <mergeCell ref="B17:G17"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/Section2.4_Example_JK.xlsx
+++ b/assets/public/Chapter_2_Recording_accounting_transactions/documents/resources/Grid/Section2.4_Example_JK.xlsx
@@ -214,6 +214,60 @@
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>447675</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>285750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F03AAEC-6B2B-47C5-BEB4-8EEFE011589C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1038225" y="1552575"/>
+          <a:ext cx="9525" cy="2590800"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:prstDash val="dash"/>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent2"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent2"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>3</xdr:col>
@@ -456,7 +510,12 @@
             <a:defRPr sz="1000"/>
           </a:pPr>
           <a:r>
-            <a:rPr lang="en-GB" sz="1000">
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
               <a:effectLst/>
               <a:latin typeface="+mn-lt"/>
               <a:ea typeface="+mn-ea"/>
@@ -597,60 +656,6 @@
         <a:xfrm>
           <a:off x="2047875" y="1428750"/>
           <a:ext cx="1993900" cy="1441450"/>
-        </a:xfrm>
-        <a:prstGeom prst="straightConnector1">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:ln>
-          <a:prstDash val="dash"/>
-          <a:tailEnd type="triangle"/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="1">
-          <a:schemeClr val="accent2"/>
-        </a:lnRef>
-        <a:fillRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="accent2"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="tx1"/>
-        </a:fontRef>
-      </xdr:style>
-    </xdr:cxnSp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>447675</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>285750</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>47625</xdr:rowOff>
-    </xdr:to>
-    <xdr:cxnSp macro="">
-      <xdr:nvCxnSpPr>
-        <xdr:cNvPr id="36" name="Straight Arrow Connector 35">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F03AAEC-6B2B-47C5-BEB4-8EEFE011589C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvCxnSpPr/>
-      </xdr:nvCxnSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="1038225" y="1552575"/>
-          <a:ext cx="9525" cy="2590800"/>
         </a:xfrm>
         <a:prstGeom prst="straightConnector1">
           <a:avLst/>
@@ -877,9 +882,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525">
           <a:noFill/>
           <a:miter lim="800000"/>
@@ -956,9 +959,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525">
           <a:noFill/>
           <a:miter lim="800000"/>
@@ -1105,9 +1106,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525">
           <a:noFill/>
           <a:miter lim="800000"/>
@@ -1292,9 +1291,7 @@
         <a:prstGeom prst="rect">
           <a:avLst/>
         </a:prstGeom>
-        <a:solidFill>
-          <a:srgbClr val="FFFFFF"/>
-        </a:solidFill>
+        <a:noFill/>
         <a:ln w="9525">
           <a:noFill/>
           <a:miter lim="800000"/>
@@ -1407,6 +1404,91 @@
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
             <a:t>④</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-IN">
+              <a:effectLst/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1000" b="1" i="0" u="none" strike="noStrike" baseline="0">
+            <a:solidFill>
+              <a:schemeClr val="accent2">
+                <a:lumMod val="50000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:latin typeface="Calibri"/>
+            <a:cs typeface="Calibri"/>
+          </a:endParaRPr>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>708025</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>12700</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>276225</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="43" name="Text Box 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{843676B8-B02D-4F52-893F-886B2B685F16}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1">
+          <a:spLocks noChangeArrowheads="1"/>
+        </xdr:cNvSpPr>
+      </xdr:nvSpPr>
+      <xdr:spPr bwMode="auto">
+        <a:xfrm>
+          <a:off x="1298575" y="2257425"/>
+          <a:ext cx="257175" cy="228600"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:srgbClr val="FFFFFF"/>
+        </a:solidFill>
+        <a:ln w="9525">
+          <a:noFill/>
+          <a:miter lim="800000"/>
+          <a:headEnd/>
+          <a:tailEnd/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="27432" rIns="0" bIns="0" anchor="t" upright="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l" rtl="0">
+            <a:defRPr sz="1000"/>
+          </a:pPr>
+          <a:r>
+            <a:rPr lang="en-GB" sz="1000" b="1">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="75000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>②</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-IN">
@@ -1731,7 +1813,7 @@
   <dimension ref="B6:G20"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+      <selection activeCell="K23" sqref="K23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1814,9 +1896,7 @@
       <c r="B13" s="7">
         <v>42887</v>
       </c>
-      <c r="C13" s="11" t="s">
-        <v>9</v>
-      </c>
+      <c r="C13" s="11"/>
       <c r="D13" s="9">
         <v>8000</v>
       </c>
@@ -1844,7 +1924,9 @@
       <c r="B15" s="7">
         <v>42891</v>
       </c>
-      <c r="C15" s="8"/>
+      <c r="C15" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="D15" s="9">
         <v>800</v>
       </c>
